--- a/data/case1/18/Qlm2_1.xlsx
+++ b/data/case1/18/Qlm2_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.13554564399406388</v>
+        <v>-0.091386431091322606</v>
       </c>
       <c r="B1" s="0">
-        <v>0.13495471750707821</v>
+        <v>0.090977820040272661</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.14279647843959786</v>
+        <v>-0.11754921698238086</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14086978139976658</v>
+        <v>0.11643797434913683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.091150654288053801</v>
+        <v>-0.066722683466609922</v>
       </c>
       <c r="B3" s="0">
-        <v>0.090511056958938241</v>
+        <v>0.066459073175161976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.082511057042356839</v>
+        <v>-0.05845907320528454</v>
       </c>
       <c r="B4" s="0">
-        <v>0.081924642623480537</v>
+        <v>0.058234986654536414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.078924642668332545</v>
+        <v>-0.055234986669403519</v>
       </c>
       <c r="B5" s="0">
-        <v>0.076915245964564782</v>
+        <v>0.054496962837506935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.045338323698954852</v>
+        <v>-0.015824270555423681</v>
       </c>
       <c r="B6" s="0">
-        <v>0.044866711257837366</v>
+        <v>0.015750597991338822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.034866711371706938</v>
+        <v>-0.0057505980310761373</v>
       </c>
       <c r="B7" s="0">
-        <v>0.034755642140066101</v>
+        <v>0.005744394514173301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.024755642257268562</v>
+        <v>0.0042556054459388371</v>
       </c>
       <c r="B8" s="0">
-        <v>0.024568303511610878</v>
+        <v>-0.0042564294197733332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029670195716091197</v>
+        <v>0.0062564294062199544</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029425037721382719</v>
+        <v>-0.0062603938389975688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027425037777060624</v>
+        <v>0.0082603938258660747</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027409515077167157</v>
+        <v>-0.0082604970549180479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024409515141773142</v>
+        <v>0.01126049703862364</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024382324454180093</v>
+        <v>-0.011263756284683346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020882324524185147</v>
+        <v>0.014763756266805039</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020678351941447293</v>
+        <v>-0.014821111215135296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017178352015264409</v>
+        <v>-0.017164786304304513</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017085720606657695</v>
+        <v>0.017079578629952685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090857207195575995</v>
+        <v>-0.009079578661602028</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090557003228433075</v>
+        <v>0.0090516081018279237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080557003765688862</v>
+        <v>-0.0080516081109509585</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080363388510953371</v>
+        <v>0.0080335311854469182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060363389139328483</v>
+        <v>-0.0060335311980779238</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034736176430847</v>
+        <v>0.0060035127066560001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034736810374838</v>
+        <v>-0.0040035127196045295</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999193573998</v>
+        <v>0.0039999999804312125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016102231510124909</v>
+        <v>-0.016105867711036836</v>
       </c>
       <c r="B18" s="0">
-        <v>0.01609134793805822</v>
+        <v>0.016092008305111705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091347973594235</v>
+        <v>-0.012092008318512537</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016289801897617</v>
+        <v>0.012017065698166185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080162898400217841</v>
+        <v>-0.00801706571242633</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056825089069861</v>
+        <v>0.0080057233674839523</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056825474330537</v>
+        <v>-0.0040057233818977522</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999611994852</v>
+        <v>0.0039999999854725132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045719127156980122</v>
+        <v>-0.045715290898552752</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045503954708342675</v>
+        <v>0.045500857800222505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503954764950834</v>
+        <v>-0.040500857820503278</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099918382220601</v>
+        <v>0.040099453550071829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099918571498065</v>
+        <v>-0.020099453620955998</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999808227642</v>
+        <v>0.019999999928212553</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.029576922311202125</v>
+        <v>-0.036672692295820042</v>
       </c>
       <c r="B25" s="0">
-        <v>0.029519708590978411</v>
+        <v>0.036633184695558541</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.027019708641315532</v>
+        <v>-0.034133184711201636</v>
       </c>
       <c r="B26" s="0">
-        <v>0.026948877378481839</v>
+        <v>0.034086211563591817</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.029309276781196214</v>
+        <v>-0.031586211579722967</v>
       </c>
       <c r="B27" s="0">
-        <v>0.028901198374109871</v>
+        <v>0.031331879770773341</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.026901198425741235</v>
+        <v>-0.088995094990598211</v>
       </c>
       <c r="B28" s="0">
-        <v>0.026642082831756397</v>
+        <v>0.088356577455649621</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.01964208292919345</v>
+        <v>-0.081356577491979998</v>
       </c>
       <c r="B29" s="0">
-        <v>0.019579993382822458</v>
+        <v>0.08117126990790613</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.040420006067405367</v>
+        <v>-0.021171270118690355</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.04061614682087944</v>
+        <v>0.021024003570028427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022559779997223</v>
+        <v>-0.01402400360970546</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001055546048136</v>
+        <v>0.014001482666921916</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010556642293693</v>
+        <v>-0.0040014827165428812</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999932808862</v>
+        <v>0.0039999999698512312</v>
       </c>
     </row>
   </sheetData>
